--- a/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Madrid/averagePriceMadridNeighbourhoods.xlsx
+++ b/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Madrid/averagePriceMadridNeighbourhoods.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>neighbourhood_cleansed</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -448,1281 +448,1281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hellín</t>
+          <t>Butarque</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.4583333333333</v>
+        <v>35.94117647058823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Palos de Moguer</t>
+          <t>Atalaya</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.3644578313253</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Butarque</t>
+          <t>Aeropuerto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.94117647058823</v>
+        <v>40.72727272727273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pacífico</t>
+          <t>Orcasur</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.26728110599079</v>
+        <v>40.86666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rejas</t>
+          <t>Aluche</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.7</v>
+        <v>41.61538461538461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Universidad</t>
+          <t>Palomeras Sureste</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.29735563950351</v>
+        <v>42.09090909090909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Legazpi</t>
+          <t>Horcajo</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.29629629629629</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Casco Histórico de Vallecas</t>
+          <t>Zofío</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.15909090909091</v>
+        <v>46.46153846153846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Goya</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.8969072164948</v>
+        <v>46.625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Casco Histórico de Barajas</t>
+          <t>Moscardó</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.81578947368421</v>
+        <v>46.68235294117647</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Cuatro Vientos</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.15094339622641</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Castellana</t>
+          <t>Vista Alegre</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.3025641025641</v>
+        <v>47.74166666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nueva España</t>
+          <t>Pavones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102</v>
+        <v>49.14285714285715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ambroz</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>141.9565217391304</v>
+        <v>49.8046511627907</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Valdefuentes</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.2828282828283</v>
+        <v>49.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vista Alegre</t>
+          <t>San Fermín</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.74166666666667</v>
+        <v>49.89655172413793</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Recoletos</t>
+          <t>Los Rosales</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>149.2316176470588</v>
+        <v>50.28070175438597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Pilar</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.625</v>
+        <v>52.20338983050848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Puerta del Angel</t>
+          <t>Portazgo</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.82720588235294</v>
+        <v>53.875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Amposta</t>
+          <t>Puerta Bonita</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Marroquina</t>
+          <t>Numancia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.8695652173913</v>
+        <v>54.60109289617486</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jerónimos</t>
+          <t>Adelfas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112.8703703703704</v>
+        <v>55.39130434782609</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argüelles</t>
+          <t>San Isidro</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.80935251798562</v>
+        <v>56.0188679245283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Numancia</t>
+          <t>Entrevías</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.60109289617486</v>
+        <v>56.27083333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Lucero</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.8046511627907</v>
+        <v>56.66265060240964</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>San Juan Bautista</t>
+          <t>Abrantes</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>139.6774193548387</v>
+        <v>57.38297872340426</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fontarrón</t>
+          <t>Campamento</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.13636363636364</v>
+        <v>58.20833333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ciudad Universitaria</t>
+          <t>San Cristobal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.7792207792208</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Portazgo</t>
+          <t>Puerta del Angel</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>53.875</v>
+        <v>61.82720588235294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aravaca</t>
+          <t>Almendrales</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.2051282051282</v>
+        <v>62.56363636363636</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aeropuerto</t>
+          <t>San Andrés</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.72727272727273</v>
+        <v>63.93478260869565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Quintana</t>
+          <t>Casco Histórico de Vallecas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>72.24107142857143</v>
+        <v>64.15909090909091</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Arcos</t>
+          <t>Opañel</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.3461538461538</v>
+        <v>64.16239316239316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Santa Eugenia</t>
+          <t>Palomeras Bajas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.66666666666667</v>
+        <v>64.17721518987342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Peñagrande</t>
+          <t>Acacias</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>126.9508196721311</v>
+        <v>64.46107784431138</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Comillas</t>
+          <t>Fontarrón</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.67307692307692</v>
+        <v>65.13636363636364</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Campamento</t>
+          <t>Palos de Moguer</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58.20833333333334</v>
+        <v>65.3644578313253</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pueblo Nuevo</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.1917808219178</v>
+        <v>66.15094339622641</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lista</t>
+          <t>Canillas</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.40697674418605</v>
+        <v>68.51612903225806</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Simancas</t>
+          <t>Castilla</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.5982142857143</v>
+        <v>68.58333333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Opañel</t>
+          <t>Legazpi</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>64.16239316239316</v>
+        <v>69.29629629629629</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entrevías</t>
+          <t>Vinateros</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.27083333333334</v>
+        <v>70.17647058823529</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>119.6568047337278</v>
+        <v>70.1917808219178</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Valdeacederas</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>86.61946902654867</v>
+        <v>70.19815668202764</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fuente del Berro</t>
+          <t>Aravaca</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.232</v>
+        <v>70.2051282051282</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>San Cristobal</t>
+          <t>Casco Histórico de Barajas</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>59.1</v>
+        <v>70.81578947368421</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Valverde</t>
+          <t>Chopera</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>82.5</v>
+        <v>71.24342105263158</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Abrantes</t>
+          <t>Ventas</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>57.38297872340426</v>
+        <v>71.81714285714285</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>El Viso</t>
+          <t>Valdemarín</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>154.5445544554455</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Concepción</t>
+          <t>Quintana</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>76.66666666666667</v>
+        <v>72.24107142857143</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Casa de Campo</t>
+          <t>Imperial</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>74.20879120879121</v>
+        <v>74.16428571428571</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Arapiles</t>
+          <t>Casa de Campo</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>78.12442396313364</v>
+        <v>74.20879120879121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Orcasitas</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>49.85</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Buenavista</t>
+          <t>Timón</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>96.3</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Corralejos</t>
+          <t>Concepción</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.4285714285714</v>
+        <v>76.66666666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Bellas Vistas</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>93.63579136690647</v>
+        <v>77.59090909090909</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bellas Vistas</t>
+          <t>Comillas</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>77.59090909090909</v>
+        <v>77.67307692307692</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Guindalera</t>
+          <t>Arapiles</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>84.97177419354838</v>
+        <v>78.12442396313364</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Berruguete</t>
+          <t>Atocha</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>88.81651376146789</v>
+        <v>80.21428571428571</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cármenes</t>
+          <t>Prosperidad</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>107.35</v>
+        <v>80.35542168674699</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fuentelareina</t>
+          <t>Santa Eugenia</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>86</v>
+        <v>80.66666666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Rosas</t>
+          <t>Valdezarza</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>298.0704225352113</v>
+        <v>81.50980392156863</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Trafalgar</t>
+          <t>Pacífico</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>94.40495867768595</v>
+        <v>82.26728110599079</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Timón</t>
+          <t>Gaztambide</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>75.5</v>
+        <v>82.44954128440367</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>San Fermín</t>
+          <t>Valverde</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>49.89655172413793</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Castillejos</t>
+          <t>Pinar del Rey</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>86.80597014925372</v>
+        <v>82.58620689655173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Almenara</t>
+          <t>Ibiza</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>85.26744186046511</v>
+        <v>83.79444444444445</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Chopera</t>
+          <t>Fuente del Berro</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>71.24342105263158</v>
+        <v>84.232</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>San Andrés</t>
+          <t>Guindalera</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>63.93478260869565</v>
+        <v>84.97177419354838</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ibiza</t>
+          <t>Almenara</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>83.79444444444445</v>
+        <v>85.26744186046511</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ventas</t>
+          <t>Embajadores</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>71.81714285714285</v>
+        <v>85.44984669294787</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>El Goloso</t>
+          <t>Fuentelareina</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>158.6666666666667</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Valdeacederas</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>114.64</v>
+        <v>86.61946902654867</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Almendrales</t>
+          <t>Castillejos</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>62.56363636363636</v>
+        <v>86.80597014925372</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Palacio</t>
+          <t>Media Legua</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>94.46092184368737</v>
+        <v>86.875</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vallehermoso</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>108.4651162790698</v>
+        <v>87.29735563950351</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mirasierra</t>
+          <t>Berruguete</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>112.575</v>
+        <v>88.81651376146789</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gaztambide</t>
+          <t>Lista</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>82.44954128440367</v>
+        <v>92.40697674418605</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>El Plantío</t>
+          <t>Argüelles</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.66666666666667</v>
+        <v>92.80935251798562</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Justicia</t>
+          <t>Sol</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>96.7489406779661</v>
+        <v>93.63579136690647</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Piovera</t>
+          <t>Colina</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>151.5</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Los Rosales</t>
+          <t>Trafalgar</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>50.28070175438597</v>
+        <v>94.40495867768595</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Costillares</t>
+          <t>Palacio</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>104.3170731707317</v>
+        <v>94.46092184368737</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Valdezarza</t>
+          <t>Rios Rosas</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>81.50980392156863</v>
+        <v>95.77222222222223</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Moscardó</t>
+          <t>Cuatro Caminos</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>46.68235294117647</v>
+        <v>95.82938388625593</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Alameda de Osuna</t>
+          <t>Apostol Santiago</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>158.125</v>
+        <v>95.95238095238095</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>San Isidro</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>56.0188679245283</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>San Pascual</t>
+          <t>Pradolongo</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>112.8205128205128</v>
+        <v>96.5945945945946</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Pradolongo</t>
+          <t>Justicia</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>96.5945945945946</v>
+        <v>96.7489406779661</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Pavones</t>
+          <t>El Plantío</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>49.14285714285715</v>
+        <v>99.66666666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Colina</t>
+          <t>Ciudad Jardín</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>94.40000000000001</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cuatro Caminos</t>
+          <t>Corralejos</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>95.82938388625593</v>
+        <v>100.4285714285714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Castilla</t>
+          <t>Cortes</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>68.58333333333333</v>
+        <v>101.4395348837209</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Puerta Bonita</t>
+          <t>Nueva España</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Acacias</t>
+          <t>Costillares</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>64.46107784431138</v>
+        <v>104.3170731707317</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Canillejas</t>
+          <t>Ciudad Universitaria</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>229.8382352941177</v>
+        <v>104.7792207792208</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rios Rosas</t>
+          <t>Goya</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>95.77222222222223</v>
+        <v>105.8969072164948</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ciudad Jardín</t>
+          <t>Cármenes</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.4</v>
+        <v>107.35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>La Paz</t>
+          <t>Vallehermoso</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>120.4516129032258</v>
+        <v>108.4651162790698</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Media Legua</t>
+          <t>Hispanoamérica</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>86.875</v>
+        <v>109.6067415730337</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Imperial</t>
+          <t>Mirasierra</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>74.16428571428571</v>
+        <v>112.575</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pilar</t>
+          <t>San Pascual</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>52.20338983050848</v>
+        <v>112.8205128205128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Palomeras Bajas</t>
+          <t>Jerónimos</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>64.17721518987342</v>
+        <v>112.8703703703704</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Adelfas</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>55.39130434782609</v>
+        <v>114.64</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cuatro Vientos</t>
+          <t>Casco Histórico de Vicálvaro</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>47</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Palomas</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>151.3076923076923</v>
+        <v>119.6568047337278</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Apostol Santiago</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>95.95238095238095</v>
+        <v>120.4516129032258</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Prosperidad</t>
+          <t>Castellana</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>80.35542168674699</v>
+        <v>125.3025641025641</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Valdemarín</t>
+          <t>Peñagrande</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>72</v>
+        <v>126.9508196721311</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Pinar del Rey</t>
+          <t>Rejas</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>82.58620689655173</v>
+        <v>128.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Palomeras Sureste</t>
+          <t>Niño Jesús</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>42.09090909090909</v>
+        <v>129.6279069767442</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cortes</t>
+          <t>Marroquina</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>101.4395348837209</v>
+        <v>137.8695652173913</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Niño Jesús</t>
+          <t>San Juan Bautista</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>129.6279069767442</v>
+        <v>139.6774193548387</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Aluche</t>
+          <t>Valdefuentes</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>41.61538461538461</v>
+        <v>141.2828282828283</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Canillas</t>
+          <t>Ambroz</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>68.51612903225806</v>
+        <v>141.9565217391304</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>El Pardo</t>
+          <t>Recoletos</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>195</v>
+        <v>149.2316176470588</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Orcasitas</t>
+          <t>Palomas</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>75.40000000000001</v>
+        <v>151.3076923076923</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Embajadores</t>
+          <t>Piovera</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>85.44984669294787</v>
+        <v>151.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Atocha</t>
+          <t>El Viso</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>80.21428571428571</v>
+        <v>154.5445544554455</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Casco Histórico de Vicálvaro</t>
+          <t>Amposta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>119.5</v>
+        <v>157.2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Zofío</t>
+          <t>Alameda de Osuna</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>46.46153846153846</v>
+        <v>158.125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Hispanoamérica</t>
+          <t>El Goloso</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>109.6067415730337</v>
+        <v>158.6666666666667</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Orcasur</t>
+          <t>Simancas</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>40.86666666666667</v>
+        <v>170.5982142857143</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Vinateros</t>
+          <t>Arcos</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>70.17647058823529</v>
+        <v>184.3461538461538</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Lucero</t>
+          <t>El Pardo</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>56.66265060240964</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Delicias</t>
+          <t>Canillejas</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>70.19815668202764</v>
+        <v>229.8382352941177</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Horcajo</t>
+          <t>Hellín</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>43</v>
+        <v>286.4583333333333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Atalaya</t>
+          <t>Rosas</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>39</v>
+        <v>298.0704225352113</v>
       </c>
     </row>
   </sheetData>
